--- a/Projekt Management.xlsx
+++ b/Projekt Management.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\Dokumentumok\GitHub\syp-projekt\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EA08E2-F88A-4DAB-B435-9A19132EF246}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
     <sheet name="Projektdokumentation" sheetId="2" r:id="rId2"/>
     <sheet name="Ausführung" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="3" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Verantwortlich</t>
   </si>
@@ -55,19 +61,7 @@
     <t>Zeitplan</t>
   </si>
   <si>
-    <t>Projektabschluss</t>
-  </si>
-  <si>
     <t>Umfeldanalyse</t>
-  </si>
-  <si>
-    <t>Risikoanalyse</t>
-  </si>
-  <si>
-    <t>Lastenheft</t>
-  </si>
-  <si>
-    <t>Pflichtenheft</t>
   </si>
   <si>
     <t>Tierverwaltungsprogramm Management Dashboard</t>
@@ -121,7 +115,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ [$EUR]"/>
   </numFmts>
@@ -325,217 +319,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
+  <dxfs count="38">
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
       </font>
     </dxf>
     <dxf>
@@ -556,6 +350,274 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <u val="none"/>
       </font>
     </dxf>
@@ -578,7 +640,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Debnar Sandor" refreshedDate="44156.66208159722" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="8">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Debnar Sandor" refreshedDate="44222.893482754633" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="4" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table2"/>
   </cacheSource>
@@ -589,18 +651,14 @@
         <s v="Projektplan"/>
         <s v="Zeitplan"/>
         <s v="Umfeldanalyse"/>
-        <s v="Risikoanalyse"/>
-        <s v="Lastenheft"/>
-        <s v="Pflichtenheft"/>
-        <s v="Projektabschluss"/>
+        <s v="Pflichtenheft" u="1"/>
+        <s v="Projektabschluss" u="1"/>
+        <s v="Lastenheft" u="1"/>
+        <s v="Risikoanalyse" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Verantwortlich" numFmtId="0">
-      <sharedItems count="3">
-        <s v="Sandor Debnar"/>
-        <s v="Emir Bajramovic"/>
-        <s v="Thomas Straßhofer"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="StartDate" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="44154" maxValue="44154"/>
@@ -612,10 +670,10 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="44161" maxValue="44161"/>
     </cacheField>
     <cacheField name="DaysCompleted" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="2"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="68" maxValue="68"/>
     </cacheField>
     <cacheField name="Progress" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.4" maxValue="0.4"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="13.6" maxValue="13.6"/>
     </cacheField>
     <cacheField name="Budget" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="100" maxValue="100"/>
@@ -636,99 +694,51 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="8">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="4">
   <r>
     <x v="0"/>
-    <x v="0"/>
+    <s v="Sandor Debnar"/>
     <n v="44154"/>
     <n v="5"/>
     <n v="44161"/>
-    <n v="2"/>
-    <n v="0.4"/>
+    <n v="68"/>
+    <n v="13.6"/>
     <n v="100"/>
     <n v="85"/>
     <n v="0.85"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="1"/>
+    <s v="Emir Bajramovic"/>
     <n v="44154"/>
     <n v="5"/>
     <n v="44161"/>
-    <n v="2"/>
-    <n v="0.4"/>
+    <n v="68"/>
+    <n v="13.6"/>
     <n v="100"/>
     <n v="85"/>
     <n v="0.85"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="2"/>
+    <s v="Thomas Straßhofer"/>
     <n v="44154"/>
     <n v="5"/>
     <n v="44161"/>
-    <n v="2"/>
-    <n v="0.4"/>
+    <n v="68"/>
+    <n v="13.6"/>
     <n v="100"/>
     <n v="85"/>
     <n v="0.85"/>
   </r>
   <r>
     <x v="3"/>
-    <x v="0"/>
+    <s v="Sandor Debnar"/>
     <n v="44154"/>
     <n v="5"/>
     <n v="44161"/>
-    <n v="2"/>
-    <n v="0.4"/>
-    <n v="100"/>
-    <n v="85"/>
-    <n v="0.85"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="44154"/>
-    <n v="5"/>
-    <n v="44161"/>
-    <n v="2"/>
-    <n v="0.4"/>
-    <n v="100"/>
-    <n v="85"/>
-    <n v="0.85"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="2"/>
-    <n v="44154"/>
-    <n v="5"/>
-    <n v="44161"/>
-    <n v="2"/>
-    <n v="0.4"/>
-    <n v="100"/>
-    <n v="85"/>
-    <n v="0.85"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="1"/>
-    <n v="44154"/>
-    <n v="5"/>
-    <n v="44161"/>
-    <n v="2"/>
-    <n v="0.4"/>
-    <n v="100"/>
-    <n v="85"/>
-    <n v="0.85"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="0"/>
-    <n v="44154"/>
-    <n v="5"/>
-    <n v="44161"/>
-    <n v="2"/>
-    <n v="0.4"/>
+    <n v="68"/>
+    <n v="13.6"/>
     <n v="100"/>
     <n v="85"/>
     <n v="0.85"/>
@@ -737,17 +747,17 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Projekt Tasks">
-  <location ref="A9:E18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Projekt Tasks">
+  <location ref="A9:E14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
       <items count="9">
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
+        <item m="1" x="6"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
         <item x="0"/>
         <item x="1"/>
-        <item x="4"/>
+        <item m="1" x="7"/>
         <item x="3"/>
         <item x="2"/>
         <item t="default"/>
@@ -758,14 +768,7 @@
         </ext>
       </extLst>
     </pivotField>
-    <pivotField compact="0" subtotalTop="0" multipleItemSelectionAllowed="1">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField compact="0" subtotalTop="0" multipleItemSelectionAllowed="1"/>
     <pivotField numFmtId="14" showAll="0">
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
@@ -826,24 +829,12 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="9">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
+  <rowItems count="5">
     <i>
       <x v="3"/>
     </i>
     <i>
       <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
     </i>
     <i>
       <x v="6"/>
@@ -879,7 +870,7 @@
     <dataField name="Budget Used" fld="9" baseField="0" baseItem="0" numFmtId="9"/>
   </dataFields>
   <formats count="13">
-    <format dxfId="24">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -888,7 +879,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -897,33 +888,33 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="34">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="33">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="32">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -932,7 +923,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="28">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -941,7 +932,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -950,7 +941,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -959,7 +950,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="25">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -982,25 +973,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:J9" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:J5" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A1:J5" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="ProjektTask" dataDxfId="9"/>
-    <tableColumn id="2" name="Verantwortlich" dataDxfId="8"/>
-    <tableColumn id="3" name="StartDate" dataDxfId="7"/>
-    <tableColumn id="4" name="DurationinDays" dataDxfId="6"/>
-    <tableColumn id="5" name="EndDate" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ProjektTask" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Verantwortlich" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="StartDate" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="DurationinDays" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="EndDate" dataDxfId="18">
       <calculatedColumnFormula>WORKDAY.INTL(C2,D2,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="DaysCompleted" dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="DaysCompleted" dataDxfId="17">
       <calculatedColumnFormula>TODAY()-C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Progress" dataDxfId="3">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Progress" dataDxfId="16">
       <calculatedColumnFormula>F2/D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Budget" dataDxfId="2"/>
-    <tableColumn id="9" name="Actual" dataDxfId="1"/>
-    <tableColumn id="10" name="Budget Percent" dataDxfId="0">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Budget" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Actual" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Budget Percent" dataDxfId="13">
       <calculatedColumnFormula>Table2[[#This Row],[Actual]]/Table2[[#This Row],[Budget]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1263,21 +1254,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="29.140625" customWidth="1"/>
@@ -1290,7 +1281,7 @@
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -1366,30 +1357,29 @@
       <c r="W3" s="22"/>
     </row>
     <row r="4" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:23" ht="18.75" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B10" s="9">
-        <v>0.4</v>
+        <v>13.6</v>
       </c>
       <c r="C10" s="8">
         <v>5</v>
@@ -1403,10 +1393,10 @@
     </row>
     <row r="11" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B11" s="9">
-        <v>0.4</v>
+        <v>13.6</v>
       </c>
       <c r="C11" s="8">
         <v>5</v>
@@ -1423,7 +1413,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="9">
-        <v>0.4</v>
+        <v>13.6</v>
       </c>
       <c r="C12" s="8">
         <v>5</v>
@@ -1435,12 +1425,12 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
-        <v>4</v>
+    <row r="13" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="B13" s="9">
-        <v>0.4</v>
+        <v>13.6</v>
       </c>
       <c r="C13" s="8">
         <v>5</v>
@@ -1453,105 +1443,33 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
-        <v>5</v>
+      <c r="A14" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="B14" s="9">
-        <v>0.4</v>
+        <v>54.4</v>
       </c>
       <c r="C14" s="8">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D14" s="10">
         <v>100</v>
       </c>
       <c r="E14" s="9">
-        <v>0.85</v>
+        <v>3.4</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="C15" s="8">
-        <v>5</v>
-      </c>
-      <c r="D15" s="10">
-        <v>100</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="C16" s="8">
-        <v>5</v>
-      </c>
-      <c r="D16" s="10">
-        <v>100</v>
-      </c>
-      <c r="E16" s="9">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="C17" s="8">
-        <v>5</v>
-      </c>
-      <c r="D17" s="10">
-        <v>100</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="9">
-        <v>3.1999999999999997</v>
-      </c>
-      <c r="C18" s="8">
-        <v>40</v>
-      </c>
-      <c r="D18" s="10">
-        <v>100</v>
-      </c>
-      <c r="E18" s="9">
-        <v>6.7999999999999989</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:5" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:5" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:5" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:5" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:23" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:23" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1572,14 +1490,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
@@ -1595,22 +1513,22 @@
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>1</v>
@@ -1622,7 +1540,7 @@
         <v>3</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -1630,25 +1548,23 @@
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="4">
-        <v>44154</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C2" s="4"/>
       <c r="D2" s="4">
         <v>5</v>
       </c>
       <c r="E2" s="4">
         <f>WORKDAY.INTL(C2,D2,1)</f>
-        <v>44161</v>
+        <v>6</v>
       </c>
       <c r="F2" s="4">
         <f ca="1">TODAY()-C2</f>
-        <v>5</v>
+        <v>44222</v>
       </c>
       <c r="G2" s="4">
         <f ca="1">F2/D2</f>
-        <v>1</v>
+        <v>8844.4</v>
       </c>
       <c r="H2" s="4">
         <v>100</v>
@@ -1666,7 +1582,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4">
         <v>44154</v>
@@ -1675,16 +1591,16 @@
         <v>5</v>
       </c>
       <c r="E3" s="4">
-        <f t="shared" ref="E3:E9" si="0">WORKDAY.INTL(C3,D3,1)</f>
+        <f t="shared" ref="E3:E5" si="0">WORKDAY.INTL(C3,D3,1)</f>
         <v>44161</v>
       </c>
       <c r="F3" s="4">
         <f ca="1">TODAY()-C3</f>
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="G3" s="4">
-        <f t="shared" ref="G3:G9" ca="1" si="1">F3/D3</f>
-        <v>1</v>
+        <f t="shared" ref="G3:G5" ca="1" si="1">F3/D3</f>
+        <v>13.6</v>
       </c>
       <c r="H3" s="4">
         <v>100</v>
@@ -1702,7 +1618,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4">
         <v>44154</v>
@@ -1715,12 +1631,12 @@
         <v>44161</v>
       </c>
       <c r="F4" s="4">
-        <f t="shared" ref="F4:F9" ca="1" si="2">TODAY()-C4</f>
-        <v>5</v>
+        <f t="shared" ref="F4:F5" ca="1" si="2">TODAY()-C4</f>
+        <v>68</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>13.6</v>
       </c>
       <c r="H4" s="4">
         <v>100</v>
@@ -1735,10 +1651,10 @@
     </row>
     <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4">
         <v>44154</v>
@@ -1752,11 +1668,11 @@
       </c>
       <c r="F5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>13.6</v>
       </c>
       <c r="H5" s="4">
         <v>100</v>
@@ -1765,150 +1681,6 @@
         <v>85</v>
       </c>
       <c r="J5" s="12">
-        <f>Table2[[#This Row],[Actual]]/Table2[[#This Row],[Budget]]</f>
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="4">
-        <v>44154</v>
-      </c>
-      <c r="D6" s="4">
-        <v>5</v>
-      </c>
-      <c r="E6" s="4">
-        <f t="shared" si="0"/>
-        <v>44161</v>
-      </c>
-      <c r="F6" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="G6" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H6" s="4">
-        <v>100</v>
-      </c>
-      <c r="I6" s="4">
-        <v>85</v>
-      </c>
-      <c r="J6" s="12">
-        <f>Table2[[#This Row],[Actual]]/Table2[[#This Row],[Budget]]</f>
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="4">
-        <v>44154</v>
-      </c>
-      <c r="D7" s="4">
-        <v>5</v>
-      </c>
-      <c r="E7" s="4">
-        <f t="shared" si="0"/>
-        <v>44161</v>
-      </c>
-      <c r="F7" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="G7" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H7" s="4">
-        <v>100</v>
-      </c>
-      <c r="I7" s="4">
-        <v>85</v>
-      </c>
-      <c r="J7" s="12">
-        <f>Table2[[#This Row],[Actual]]/Table2[[#This Row],[Budget]]</f>
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44154</v>
-      </c>
-      <c r="D8" s="4">
-        <v>5</v>
-      </c>
-      <c r="E8" s="4">
-        <f t="shared" si="0"/>
-        <v>44161</v>
-      </c>
-      <c r="F8" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="G8" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H8" s="4">
-        <v>100</v>
-      </c>
-      <c r="I8" s="4">
-        <v>85</v>
-      </c>
-      <c r="J8" s="12">
-        <f>Table2[[#This Row],[Actual]]/Table2[[#This Row],[Budget]]</f>
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="4">
-        <v>44154</v>
-      </c>
-      <c r="D9" s="4">
-        <v>5</v>
-      </c>
-      <c r="E9" s="4">
-        <f t="shared" si="0"/>
-        <v>44161</v>
-      </c>
-      <c r="F9" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="G9" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H9" s="4">
-        <v>100</v>
-      </c>
-      <c r="I9" s="4">
-        <v>85</v>
-      </c>
-      <c r="J9" s="12">
         <f>Table2[[#This Row],[Actual]]/Table2[[#This Row],[Budget]]</f>
         <v>0.85</v>
       </c>
@@ -1923,14 +1695,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="21.140625" customWidth="1"/>

--- a/Projekt Management.xlsx
+++ b/Projekt Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\Dokumentumok\GitHub\syp-projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EA08E2-F88A-4DAB-B435-9A19132EF246}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03BFE2C-6FD9-42D3-90E9-C51E8F3F8486}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -64,9 +64,6 @@
     <t>Umfeldanalyse</t>
   </si>
   <si>
-    <t>Tierverwaltungsprogramm Management Dashboard</t>
-  </si>
-  <si>
     <t>ProjektTask</t>
   </si>
   <si>
@@ -110,6 +107,9 @@
   </si>
   <si>
     <t>Budget Used</t>
+  </si>
+  <si>
+    <t>Bobliothekswerwaltung Management Dashboard</t>
   </si>
 </sst>
 </file>
@@ -321,75 +321,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
+  <dxfs count="25">
     <dxf>
       <font>
         <strike val="0"/>
@@ -747,7 +679,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Projekt Tasks">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Projekt Tasks">
   <location ref="A9:E14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
@@ -870,7 +802,7 @@
     <dataField name="Budget Used" fld="9" baseField="0" baseItem="0" numFmtId="9"/>
   </dataFields>
   <formats count="13">
-    <format dxfId="37">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -879,7 +811,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="36">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -888,33 +820,33 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="21">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="20">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="19">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -923,7 +855,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="15">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -932,7 +864,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -941,7 +873,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -950,7 +882,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="12">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -973,25 +905,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:J5" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:J5" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:J5" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ProjektTask" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Verantwortlich" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="StartDate" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="DurationinDays" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="EndDate" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ProjektTask" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Verantwortlich" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="StartDate" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="DurationinDays" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="EndDate" dataDxfId="5">
       <calculatedColumnFormula>WORKDAY.INTL(C2,D2,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="DaysCompleted" dataDxfId="17">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="DaysCompleted" dataDxfId="4">
       <calculatedColumnFormula>TODAY()-C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Progress" dataDxfId="16">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Progress" dataDxfId="3">
       <calculatedColumnFormula>F2/D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Budget" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Actual" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Budget Percent" dataDxfId="13">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Budget" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Actual" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Budget Percent" dataDxfId="0">
       <calculatedColumnFormula>Table2[[#This Row],[Actual]]/Table2[[#This Row],[Budget]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1264,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1281,7 +1213,7 @@
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -1359,19 +1291,19 @@
     <row r="4" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>16</v>
-      </c>
       <c r="E9" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
@@ -1444,7 +1376,7 @@
     </row>
     <row r="14" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="9">
         <v>54.4</v>
@@ -1459,10 +1391,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:23" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1513,22 +1442,22 @@
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>1</v>
@@ -1540,7 +1469,7 @@
         <v>3</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -1548,7 +1477,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4">
@@ -1582,7 +1511,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="4">
         <v>44154</v>
@@ -1618,7 +1547,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4">
         <v>44154</v>
@@ -1654,7 +1583,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="4">
         <v>44154</v>

--- a/Projekt Management.xlsx
+++ b/Projekt Management.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\Dokumentumok\GitHub\syp-projekt\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A12600A-7EAA-4656-8F8C-FB21AB51D3CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
     <sheet name="Projektdokumentation" sheetId="2" r:id="rId2"/>
     <sheet name="Ausführung" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
@@ -38,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>Verantwortlich</t>
   </si>
@@ -122,12 +116,15 @@
   </si>
   <si>
     <t>Budget Used</t>
+  </si>
+  <si>
+    <t>Test am 26.01.2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ [$EUR]"/>
   </numFmts>
@@ -331,7 +328,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="25">
     <dxf>
@@ -344,7 +341,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -359,7 +355,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -373,7 +368,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -387,7 +381,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -401,7 +394,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -415,7 +407,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -429,7 +420,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -443,7 +433,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -457,7 +446,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -471,7 +459,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -485,7 +472,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -503,7 +489,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -596,7 +581,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Debnar Sandor" refreshedDate="44156.66208159722" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="8" xr:uid="{B2C62627-E26F-421A-9CCB-73109CFCA2A6}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Debnar Sandor" refreshedDate="44156.66208159722" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="8">
   <cacheSource type="worksheet">
     <worksheetSource name="Table2"/>
   </cacheSource>
@@ -755,7 +740,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0A799982-C4D0-4D91-81AC-A6F1A08613FB}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Projekt Tasks">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Projekt Tasks">
   <location ref="A9:E18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
@@ -1000,25 +985,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C8309559-B171-4FFA-941E-9EA28778D3FB}" name="Table2" displayName="Table2" ref="A1:J9" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" dataCellStyle="Normal">
-  <autoFilter ref="A1:J9" xr:uid="{57DBECD1-17C9-425D-84ED-15E778E21490}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:J9" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J9"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7F3824A8-1CE7-4C11-958C-A6DC4861C24D}" name="ProjektTask" dataDxfId="9" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{705FF04B-F90A-4672-A633-D2CA951F68F7}" name="Verantwortlich" dataDxfId="8" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{A467B1FD-58E5-4669-96D6-8B23BD1112C8}" name="StartDate" dataDxfId="7" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{A2D34AD4-99BA-4D05-AD2E-A77E6BDFA95A}" name="DurationinDays" dataDxfId="6" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{D6EA8B41-5157-4822-8A67-F44A400E6C92}" name="EndDate" dataDxfId="5" dataCellStyle="Normal">
+    <tableColumn id="1" name="ProjektTask" dataDxfId="9"/>
+    <tableColumn id="2" name="Verantwortlich" dataDxfId="8"/>
+    <tableColumn id="3" name="StartDate" dataDxfId="7"/>
+    <tableColumn id="4" name="DurationinDays" dataDxfId="6"/>
+    <tableColumn id="5" name="EndDate" dataDxfId="5">
       <calculatedColumnFormula>WORKDAY.INTL(C2,D2,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{442CC0D2-30E9-40A9-8EA0-55B60A7A7B4B}" name="DaysCompleted" dataDxfId="4" dataCellStyle="Normal">
+    <tableColumn id="6" name="DaysCompleted" dataDxfId="4">
       <calculatedColumnFormula>TODAY()-C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{81C2C076-C857-4CAD-BD5E-F64C868363B5}" name="Progress" dataDxfId="3" dataCellStyle="Normal">
+    <tableColumn id="7" name="Progress" dataDxfId="3">
       <calculatedColumnFormula>F2/D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{9B8C19A3-9FA7-4C03-B4C7-CAAFED263D50}" name="Budget" dataDxfId="2" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{D8355103-7551-4458-AE63-9CE1E3041D0A}" name="Actual" dataDxfId="1" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{020ABB6A-1B2E-42EB-A655-5619496CC596}" name="Budget Percent" dataDxfId="0" dataCellStyle="Normal">
+    <tableColumn id="8" name="Budget" dataDxfId="2"/>
+    <tableColumn id="9" name="Actual" dataDxfId="1"/>
+    <tableColumn id="10" name="Budget Percent" dataDxfId="0">
       <calculatedColumnFormula>Table2[[#This Row],[Actual]]/Table2[[#This Row],[Budget]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1281,21 +1266,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W59"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="29.140625" customWidth="1"/>
@@ -1581,14 +1566,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16F1BD4-1E2C-41E7-A505-52C45C247F82}">
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
@@ -1653,11 +1638,11 @@
       </c>
       <c r="F2" s="4">
         <f ca="1">TODAY()-C2</f>
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="G2" s="4">
         <f ca="1">F2/D2</f>
-        <v>1</v>
+        <v>13.6</v>
       </c>
       <c r="H2" s="4">
         <v>100</v>
@@ -1689,11 +1674,11 @@
       </c>
       <c r="F3" s="4">
         <f ca="1">TODAY()-C3</f>
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" ref="G3:G9" ca="1" si="1">F3/D3</f>
-        <v>1</v>
+        <v>13.6</v>
       </c>
       <c r="H3" s="4">
         <v>100</v>
@@ -1725,11 +1710,11 @@
       </c>
       <c r="F4" s="4">
         <f t="shared" ref="F4:F9" ca="1" si="2">TODAY()-C4</f>
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>13.6</v>
       </c>
       <c r="H4" s="4">
         <v>100</v>
@@ -1761,11 +1746,11 @@
       </c>
       <c r="F5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>13.6</v>
       </c>
       <c r="H5" s="4">
         <v>100</v>
@@ -1797,11 +1782,11 @@
       </c>
       <c r="F6" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>13.6</v>
       </c>
       <c r="H6" s="4">
         <v>100</v>
@@ -1833,11 +1818,11 @@
       </c>
       <c r="F7" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>13.6</v>
       </c>
       <c r="H7" s="4">
         <v>100</v>
@@ -1869,11 +1854,11 @@
       </c>
       <c r="F8" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>13.6</v>
       </c>
       <c r="H8" s="4">
         <v>100</v>
@@ -1905,11 +1890,11 @@
       </c>
       <c r="F9" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>13.6</v>
       </c>
       <c r="H9" s="4">
         <v>100</v>
@@ -1920,6 +1905,11 @@
       <c r="J9" s="12">
         <f>Table2[[#This Row],[Actual]]/Table2[[#This Row],[Budget]]</f>
         <v>0.85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1932,14 +1922,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BECCCE-F75E-4B54-BE0C-5A91F6498BE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="21.140625" customWidth="1"/>

--- a/Projekt Management.xlsx
+++ b/Projekt Management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\Dokumentumok\GitHub\syp-projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03BFE2C-6FD9-42D3-90E9-C51E8F3F8486}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0493D2F-E1C3-4828-8237-2F939AAA3CEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1605" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
     <t>Budget Used</t>
   </si>
   <si>
-    <t>Bobliothekswerwaltung Management Dashboard</t>
+    <t>Bibliothekswerwaltung Management Dashboard</t>
   </si>
 </sst>
 </file>
@@ -1196,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:W3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1422,7 +1422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/Projekt Management.xlsx
+++ b/Projekt Management.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\Dokumentumok\GitHub\syp-projekt\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4EDE6F-E7D5-40A2-B7F7-7CD0C3117972}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-28920" yWindow="-1605" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
     <sheet name="Projektdokumentation" sheetId="2" r:id="rId2"/>
     <sheet name="Ausführung" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="3" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Verantwortlich</t>
   </si>
@@ -55,24 +61,9 @@
     <t>Zeitplan</t>
   </si>
   <si>
-    <t>Projektabschluss</t>
-  </si>
-  <si>
     <t>Umfeldanalyse</t>
   </si>
   <si>
-    <t>Risikoanalyse</t>
-  </si>
-  <si>
-    <t>Lastenheft</t>
-  </si>
-  <si>
-    <t>Pflichtenheft</t>
-  </si>
-  <si>
-    <t>Tierverwaltungsprogramm Management Dashboard</t>
-  </si>
-  <si>
     <t>ProjektTask</t>
   </si>
   <si>
@@ -118,13 +109,16 @@
     <t>Budget Used</t>
   </si>
   <si>
-    <t>Test am 26.01.2021</t>
+    <t>Bibliotheksverwaltung Management Dashboard</t>
+  </si>
+  <si>
+    <t>Sandor  Debnar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ [$EUR]"/>
   </numFmts>
@@ -328,217 +322,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
+  <dxfs count="38">
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
       </font>
     </dxf>
     <dxf>
@@ -559,6 +353,274 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <u val="none"/>
       </font>
     </dxf>
@@ -581,7 +643,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Debnar Sandor" refreshedDate="44156.66208159722" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="8">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Debnar Sandor" refreshedDate="44222.907604513886" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="4" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table2"/>
   </cacheSource>
@@ -592,18 +654,14 @@
         <s v="Projektplan"/>
         <s v="Zeitplan"/>
         <s v="Umfeldanalyse"/>
-        <s v="Risikoanalyse"/>
-        <s v="Lastenheft"/>
-        <s v="Pflichtenheft"/>
-        <s v="Projektabschluss"/>
+        <s v="Pflichtenheft" u="1"/>
+        <s v="Projektabschluss" u="1"/>
+        <s v="Lastenheft" u="1"/>
+        <s v="Risikoanalyse" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Verantwortlich" numFmtId="0">
-      <sharedItems count="3">
-        <s v="Sandor Debnar"/>
-        <s v="Emir Bajramovic"/>
-        <s v="Thomas Straßhofer"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="StartDate" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="44154" maxValue="44154"/>
@@ -615,10 +673,10 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="44161" maxValue="44161"/>
     </cacheField>
     <cacheField name="DaysCompleted" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="2"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="68" maxValue="68"/>
     </cacheField>
     <cacheField name="Progress" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.4" maxValue="0.4"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="13.6" maxValue="13.6"/>
     </cacheField>
     <cacheField name="Budget" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="100" maxValue="100"/>
@@ -639,99 +697,51 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="8">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="4">
   <r>
     <x v="0"/>
-    <x v="0"/>
+    <s v="Thomas Straßhofer"/>
     <n v="44154"/>
     <n v="5"/>
     <n v="44161"/>
-    <n v="2"/>
-    <n v="0.4"/>
+    <n v="68"/>
+    <n v="13.6"/>
     <n v="100"/>
     <n v="85"/>
     <n v="0.85"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="1"/>
+    <s v="Sandor  Debnar"/>
     <n v="44154"/>
     <n v="5"/>
     <n v="44161"/>
-    <n v="2"/>
-    <n v="0.4"/>
+    <n v="68"/>
+    <n v="13.6"/>
     <n v="100"/>
     <n v="85"/>
     <n v="0.85"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="2"/>
+    <s v="Emir Bajramovic"/>
     <n v="44154"/>
     <n v="5"/>
     <n v="44161"/>
-    <n v="2"/>
-    <n v="0.4"/>
+    <n v="68"/>
+    <n v="13.6"/>
     <n v="100"/>
     <n v="85"/>
     <n v="0.85"/>
   </r>
   <r>
     <x v="3"/>
-    <x v="0"/>
+    <s v="Sandor Debnar"/>
     <n v="44154"/>
     <n v="5"/>
     <n v="44161"/>
-    <n v="2"/>
-    <n v="0.4"/>
-    <n v="100"/>
-    <n v="85"/>
-    <n v="0.85"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="44154"/>
-    <n v="5"/>
-    <n v="44161"/>
-    <n v="2"/>
-    <n v="0.4"/>
-    <n v="100"/>
-    <n v="85"/>
-    <n v="0.85"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="2"/>
-    <n v="44154"/>
-    <n v="5"/>
-    <n v="44161"/>
-    <n v="2"/>
-    <n v="0.4"/>
-    <n v="100"/>
-    <n v="85"/>
-    <n v="0.85"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="1"/>
-    <n v="44154"/>
-    <n v="5"/>
-    <n v="44161"/>
-    <n v="2"/>
-    <n v="0.4"/>
-    <n v="100"/>
-    <n v="85"/>
-    <n v="0.85"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="0"/>
-    <n v="44154"/>
-    <n v="5"/>
-    <n v="44161"/>
-    <n v="2"/>
-    <n v="0.4"/>
+    <n v="68"/>
+    <n v="13.6"/>
     <n v="100"/>
     <n v="85"/>
     <n v="0.85"/>
@@ -740,17 +750,17 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Projekt Tasks">
-  <location ref="A9:E18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Projekt Tasks">
+  <location ref="A9:E14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
       <items count="9">
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
+        <item m="1" x="6"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
         <item x="0"/>
         <item x="1"/>
-        <item x="4"/>
+        <item m="1" x="7"/>
         <item x="3"/>
         <item x="2"/>
         <item t="default"/>
@@ -761,14 +771,7 @@
         </ext>
       </extLst>
     </pivotField>
-    <pivotField compact="0" subtotalTop="0" multipleItemSelectionAllowed="1">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField compact="0" subtotalTop="0" multipleItemSelectionAllowed="1"/>
     <pivotField numFmtId="14" showAll="0">
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
@@ -829,24 +832,12 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="9">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
+  <rowItems count="5">
     <i>
       <x v="3"/>
     </i>
     <i>
       <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
     </i>
     <i>
       <x v="6"/>
@@ -882,7 +873,7 @@
     <dataField name="Budget Used" fld="9" baseField="0" baseItem="0" numFmtId="9"/>
   </dataFields>
   <formats count="13">
-    <format dxfId="24">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -891,7 +882,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -900,33 +891,33 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="34">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="33">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="32">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -935,7 +926,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="28">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -944,7 +935,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -953,7 +944,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -962,7 +953,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="25">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -985,25 +976,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:J9" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:J5" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A1:J5" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="ProjektTask" dataDxfId="9"/>
-    <tableColumn id="2" name="Verantwortlich" dataDxfId="8"/>
-    <tableColumn id="3" name="StartDate" dataDxfId="7"/>
-    <tableColumn id="4" name="DurationinDays" dataDxfId="6"/>
-    <tableColumn id="5" name="EndDate" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ProjektTask" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Verantwortlich" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="StartDate" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="DurationinDays" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="EndDate" dataDxfId="18">
       <calculatedColumnFormula>WORKDAY.INTL(C2,D2,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="DaysCompleted" dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="DaysCompleted" dataDxfId="17">
       <calculatedColumnFormula>TODAY()-C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Progress" dataDxfId="3">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Progress" dataDxfId="16">
       <calculatedColumnFormula>F2/D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Budget" dataDxfId="2"/>
-    <tableColumn id="9" name="Actual" dataDxfId="1"/>
-    <tableColumn id="10" name="Budget Percent" dataDxfId="0">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Budget" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Actual" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Budget Percent" dataDxfId="13">
       <calculatedColumnFormula>Table2[[#This Row],[Actual]]/Table2[[#This Row],[Budget]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1266,21 +1257,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="29.140625" customWidth="1"/>
@@ -1293,7 +1284,7 @@
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -1371,27 +1362,27 @@
     <row r="4" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B10" s="9">
-        <v>0.4</v>
+        <v>13.6</v>
       </c>
       <c r="C10" s="8">
         <v>5</v>
@@ -1405,10 +1396,10 @@
     </row>
     <row r="11" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B11" s="9">
-        <v>0.4</v>
+        <v>13.6</v>
       </c>
       <c r="C11" s="8">
         <v>5</v>
@@ -1425,7 +1416,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="9">
-        <v>0.4</v>
+        <v>13.6</v>
       </c>
       <c r="C12" s="8">
         <v>5</v>
@@ -1437,12 +1428,12 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
-        <v>4</v>
+    <row r="13" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="B13" s="9">
-        <v>0.4</v>
+        <v>13.6</v>
       </c>
       <c r="C13" s="8">
         <v>5</v>
@@ -1455,96 +1446,32 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
-        <v>5</v>
+      <c r="A14" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="B14" s="9">
-        <v>0.4</v>
+        <v>54.4</v>
       </c>
       <c r="C14" s="8">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D14" s="10">
         <v>100</v>
       </c>
       <c r="E14" s="9">
-        <v>0.85</v>
+        <v>3.4</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="C15" s="8">
-        <v>5</v>
-      </c>
-      <c r="D15" s="10">
-        <v>100</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="C16" s="8">
-        <v>5</v>
-      </c>
-      <c r="D16" s="10">
-        <v>100</v>
-      </c>
-      <c r="E16" s="9">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="C17" s="8">
-        <v>5</v>
-      </c>
-      <c r="D17" s="10">
-        <v>100</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="9">
-        <v>3.1999999999999997</v>
-      </c>
-      <c r="C18" s="8">
-        <v>40</v>
-      </c>
-      <c r="D18" s="10">
-        <v>100</v>
-      </c>
-      <c r="E18" s="9">
-        <v>6.7999999999999989</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:23" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:23" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1566,14 +1493,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
@@ -1589,22 +1516,22 @@
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>1</v>
@@ -1616,7 +1543,7 @@
         <v>3</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -1624,7 +1551,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C2" s="4">
         <v>44154</v>
@@ -1669,7 +1596,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="4">
-        <f t="shared" ref="E3:E9" si="0">WORKDAY.INTL(C3,D3,1)</f>
+        <f t="shared" ref="E3:E5" si="0">WORKDAY.INTL(C3,D3,1)</f>
         <v>44161</v>
       </c>
       <c r="F3" s="4">
@@ -1677,7 +1604,7 @@
         <v>68</v>
       </c>
       <c r="G3" s="4">
-        <f t="shared" ref="G3:G9" ca="1" si="1">F3/D3</f>
+        <f t="shared" ref="G3:G5" ca="1" si="1">F3/D3</f>
         <v>13.6</v>
       </c>
       <c r="H3" s="4">
@@ -1696,7 +1623,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4">
         <v>44154</v>
@@ -1709,7 +1636,7 @@
         <v>44161</v>
       </c>
       <c r="F4" s="4">
-        <f t="shared" ref="F4:F9" ca="1" si="2">TODAY()-C4</f>
+        <f t="shared" ref="F4:F5" ca="1" si="2">TODAY()-C4</f>
         <v>68</v>
       </c>
       <c r="G4" s="4">
@@ -1729,10 +1656,10 @@
     </row>
     <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C5" s="4">
         <v>44154</v>
@@ -1761,155 +1688,6 @@
       <c r="J5" s="12">
         <f>Table2[[#This Row],[Actual]]/Table2[[#This Row],[Budget]]</f>
         <v>0.85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="4">
-        <v>44154</v>
-      </c>
-      <c r="D6" s="4">
-        <v>5</v>
-      </c>
-      <c r="E6" s="4">
-        <f t="shared" si="0"/>
-        <v>44161</v>
-      </c>
-      <c r="F6" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>68</v>
-      </c>
-      <c r="G6" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>13.6</v>
-      </c>
-      <c r="H6" s="4">
-        <v>100</v>
-      </c>
-      <c r="I6" s="4">
-        <v>85</v>
-      </c>
-      <c r="J6" s="12">
-        <f>Table2[[#This Row],[Actual]]/Table2[[#This Row],[Budget]]</f>
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="4">
-        <v>44154</v>
-      </c>
-      <c r="D7" s="4">
-        <v>5</v>
-      </c>
-      <c r="E7" s="4">
-        <f t="shared" si="0"/>
-        <v>44161</v>
-      </c>
-      <c r="F7" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>68</v>
-      </c>
-      <c r="G7" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>13.6</v>
-      </c>
-      <c r="H7" s="4">
-        <v>100</v>
-      </c>
-      <c r="I7" s="4">
-        <v>85</v>
-      </c>
-      <c r="J7" s="12">
-        <f>Table2[[#This Row],[Actual]]/Table2[[#This Row],[Budget]]</f>
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44154</v>
-      </c>
-      <c r="D8" s="4">
-        <v>5</v>
-      </c>
-      <c r="E8" s="4">
-        <f t="shared" si="0"/>
-        <v>44161</v>
-      </c>
-      <c r="F8" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>68</v>
-      </c>
-      <c r="G8" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>13.6</v>
-      </c>
-      <c r="H8" s="4">
-        <v>100</v>
-      </c>
-      <c r="I8" s="4">
-        <v>85</v>
-      </c>
-      <c r="J8" s="12">
-        <f>Table2[[#This Row],[Actual]]/Table2[[#This Row],[Budget]]</f>
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="4">
-        <v>44154</v>
-      </c>
-      <c r="D9" s="4">
-        <v>5</v>
-      </c>
-      <c r="E9" s="4">
-        <f t="shared" si="0"/>
-        <v>44161</v>
-      </c>
-      <c r="F9" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>68</v>
-      </c>
-      <c r="G9" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>13.6</v>
-      </c>
-      <c r="H9" s="4">
-        <v>100</v>
-      </c>
-      <c r="I9" s="4">
-        <v>85</v>
-      </c>
-      <c r="J9" s="12">
-        <f>Table2[[#This Row],[Actual]]/Table2[[#This Row],[Budget]]</f>
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1922,14 +1700,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="21.140625" customWidth="1"/>
